--- a/Outputs/1. Budget/Output Files/420000/Output_3_30.xlsx
+++ b/Outputs/1. Budget/Output Files/420000/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2223446.739994939</v>
+        <v>2258765.495320708</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478711</v>
+        <v>8362709.488478713</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7376106.46816105</v>
+        <v>7376106.468161048</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>57.16776090941369</v>
+        <v>87.7061602166668</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -788,22 +788,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>144.6060349495346</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>87.72213096015525</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,64 +828,64 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>105.6245995301945</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -952,10 +952,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>35.00246782997241</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,22 +1180,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>98.74855378848305</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>200.160833108852</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>21.0507685937734</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>74.0428859370281</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.75676092343876</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
         <v>217.4184586216305</v>
@@ -1429,16 +1429,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>146.8578535780591</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>108.3815408963585</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
@@ -1505,7 +1505,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8957288909827</v>
+        <v>19.04449791804963</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1514,7 +1514,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>47.47529300550337</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>13.08993799274036</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>37.13721032470825</v>
+        <v>56.41944999062395</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
-        <v>105.4431349879765</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
-        <v>197.3677099213027</v>
+        <v>38.97663790996543</v>
       </c>
       <c r="U15" t="n">
         <v>225.8957288909827</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>150.7617616219096</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>74.15307578127809</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.9527187252551</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>164.2341507702193</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>8.142111638529839</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>65.50479675552441</v>
@@ -1976,7 +1976,7 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3677099213027</v>
+        <v>175.6262265852954</v>
       </c>
       <c r="U18" t="n">
         <v>225.8957288909827</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>47.47529300550341</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>71.4122186713595</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>392.8273377577475</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>31.97967680691736</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2168,7 +2168,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2213,13 +2213,13 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
-        <v>91.08816241971709</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8957288909827</v>
+        <v>194.7716880834213</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>119.5452544581847</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>213.7566149411066</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.04663142935574797</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>130.8136114683944</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.14211163852981</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>158.7937537960548</v>
+        <v>122.9808755242954</v>
       </c>
       <c r="T24" t="n">
         <v>197.3677099213027</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>47.47529300550337</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>71.4122186713595</v>
       </c>
     </row>
     <row r="26">
@@ -2560,22 +2560,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>68.18628811863768</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>81.4053378943139</v>
       </c>
     </row>
     <row r="27">
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S27" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>197.3677099213027</v>
@@ -2699,7 +2699,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>100.6421110425457</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>73.66757925108482</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>73.9173740920687</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,22 +2794,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>26.73110927253621</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>139.1202614716585</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2918,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
-        <v>158.7937537960548</v>
+        <v>127.6697129884935</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U30" t="n">
-        <v>216.4122078393524</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.2421731387156</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>119.5452544581846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>92.79732266318133</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>176.4442482039092</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,13 +3158,13 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T33" t="n">
         <v>197.3677099213027</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8957288909827</v>
+        <v>133.0094536351697</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3173,7 +3173,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>100.6421110425457</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>124.454498910781</v>
+        <v>54.64771050305905</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>90.51206582944673</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>176.9207030015171</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,10 +3347,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>20.17002628298244</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3359,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
         <v>105.5335559456492</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3677099213027</v>
+        <v>163.2249779366852</v>
       </c>
       <c r="U36" t="n">
         <v>225.8957288909827</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>148.477874827925</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3468,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R37" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>131.2118276885077</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3508,10 +3508,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>62.74421521536814</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>195.7012296306293</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,7 +3587,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>80.88814752895608</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951727</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U39" t="n">
         <v>225.8957288909827</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.73493885277917</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>93.40038367321657</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>186.6752131817402</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>361.2268334838673</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3824,10 +3824,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>106.6703148185773</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3878,7 +3878,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V42" t="n">
-        <v>34.38075594796302</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3942,25 +3942,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>183.4401280146811</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>13.08993799274038</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>31.48946753263409</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>167.4425599036465</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4061,13 +4061,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>94.09444675656027</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>136.64958867533</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>158.7937537960548</v>
+        <v>17.44731957864654</v>
       </c>
       <c r="T45" t="n">
         <v>197.3677099213027</v>
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>8.357405472790651</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>152.9432719935528</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104.5536560184564</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C2" t="n">
-        <v>104.5536560184564</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D2" t="n">
-        <v>104.5536560184564</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E2" t="n">
-        <v>104.5536560184564</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4363,13 +4363,13 @@
         <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V2" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W2" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X2" t="n">
         <v>348.0024326625565</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>372.6384501595139</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C3" t="n">
-        <v>372.6384501595139</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
         <v>223.7040404982626</v>
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>461.2466632505798</v>
+        <v>716.820924094295</v>
       </c>
       <c r="V3" t="n">
-        <v>461.2466632505798</v>
+        <v>716.820924094295</v>
       </c>
       <c r="W3" t="n">
-        <v>372.6384501595139</v>
+        <v>716.820924094295</v>
       </c>
       <c r="X3" t="n">
-        <v>372.6384501595139</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y3" t="n">
-        <v>372.6384501595139</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
         <v>19.28114311021272</v>
@@ -4533,7 +4533,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>366.1018663125844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>366.1018663125844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>366.1018663125844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>366.1018663125844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4600,19 +4600,19 @@
         <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>366.1018663125844</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V5" t="n">
-        <v>366.1018663125844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="W5" t="n">
-        <v>366.1018663125844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="X5" t="n">
-        <v>366.1018663125844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y5" t="n">
-        <v>366.1018663125844</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>223.7040404982626</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>223.7040404982626</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>223.7040404982626</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
         <v>223.7040404982626</v>
@@ -4652,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>223.7040404982626</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
         <v>41.77557929797318</v>
@@ -4755,22 +4755,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U8" t="n">
-        <v>266.3558523848238</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V8" t="n">
-        <v>266.3558523848238</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="W8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="X8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>689.4702815141908</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C9" t="n">
-        <v>689.4702815141908</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
         <v>223.7040404982626</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W9" t="n">
-        <v>689.4702815141908</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X9" t="n">
-        <v>689.4702815141908</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y9" t="n">
-        <v>689.4702815141908</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="10">
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>796.4947224030295</v>
+        <v>1182.282975001274</v>
       </c>
       <c r="C11" t="n">
-        <v>796.4947224030295</v>
+        <v>1182.282975001274</v>
       </c>
       <c r="D11" t="n">
-        <v>796.4947224030295</v>
+        <v>1182.282975001274</v>
       </c>
       <c r="E11" t="n">
         <v>796.4947224030295</v>
@@ -5035,13 +5035,13 @@
         <v>378.3070564736033</v>
       </c>
       <c r="H11" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I11" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K11" t="n">
         <v>412.3079679977591</v>
@@ -5059,34 +5059,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P11" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q11" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2371.897027894855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2371.897027894855</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T11" t="n">
-        <v>2152.282423226541</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U11" t="n">
-        <v>1898.502729238424</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V11" t="n">
-        <v>1567.439841894853</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="W11" t="n">
-        <v>1214.671186624739</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="X11" t="n">
-        <v>1214.671186624739</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="Y11" t="n">
-        <v>824.5318546489273</v>
+        <v>1568.882815065396</v>
       </c>
     </row>
     <row r="12">
@@ -5117,10 +5117,10 @@
         <v>114.9862139017798</v>
       </c>
       <c r="I12" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K12" t="n">
         <v>285.1110033225004</v>
@@ -5144,28 +5144,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S12" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T12" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U12" t="n">
-        <v>1795.401172494433</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="V12" t="n">
-        <v>1560.24906426269</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W12" t="n">
-        <v>1306.011707534488</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X12" t="n">
-        <v>1306.011707534488</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y12" t="n">
-        <v>1098.251408769534</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.81975253256328</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="C13" t="n">
-        <v>48.81975253256328</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="D13" t="n">
-        <v>48.81975253256328</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="E13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K13" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L13" t="n">
         <v>206.6297039190408</v>
@@ -5235,16 +5235,16 @@
         <v>351.4590821581505</v>
       </c>
       <c r="V13" t="n">
-        <v>351.4590821581505</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="W13" t="n">
-        <v>62.04191212118991</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="X13" t="n">
-        <v>48.81975253256328</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.81975253256328</v>
+        <v>96.77459395226364</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2153.106046300969</v>
+        <v>1540.548673608024</v>
       </c>
       <c r="C14" t="n">
-        <v>1784.143529360557</v>
+        <v>1540.548673608024</v>
       </c>
       <c r="D14" t="n">
-        <v>1425.877830753807</v>
+        <v>1182.282975001274</v>
       </c>
       <c r="E14" t="n">
-        <v>1040.089578155562</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="F14" t="n">
-        <v>629.1036733659547</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G14" t="n">
-        <v>210.9160074365284</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H14" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
@@ -5308,22 +5308,22 @@
         <v>2190.61837996229</v>
       </c>
       <c r="T14" t="n">
-        <v>2190.61837996229</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U14" t="n">
-        <v>2190.61837996229</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V14" t="n">
-        <v>2190.61837996229</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="W14" t="n">
-        <v>2190.61837996229</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="X14" t="n">
-        <v>2190.61837996229</v>
+        <v>1597.538017032897</v>
       </c>
       <c r="Y14" t="n">
-        <v>2190.61837996229</v>
+        <v>1597.538017032897</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>776.0740854914872</v>
+        <v>882.175553373567</v>
       </c>
       <c r="C15" t="n">
-        <v>601.6210562103602</v>
+        <v>707.72252409244</v>
       </c>
       <c r="D15" t="n">
-        <v>452.6866465491088</v>
+        <v>558.7881144311888</v>
       </c>
       <c r="E15" t="n">
-        <v>293.4491915436533</v>
+        <v>399.5506594257333</v>
       </c>
       <c r="F15" t="n">
-        <v>293.4491915436533</v>
+        <v>253.0161014526182</v>
       </c>
       <c r="G15" t="n">
-        <v>155.4193039928149</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H15" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K15" t="n">
-        <v>161.1406371339193</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L15" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M15" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N15" t="n">
         <v>1557.865593173221</v>
@@ -5384,25 +5384,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S15" t="n">
-        <v>2276.829513525103</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T15" t="n">
-        <v>2077.468190372272</v>
+        <v>2183.569658254351</v>
       </c>
       <c r="U15" t="n">
-        <v>1849.290686441986</v>
+        <v>1955.392154324066</v>
       </c>
       <c r="V15" t="n">
-        <v>1614.138578210243</v>
+        <v>1720.240046092323</v>
       </c>
       <c r="W15" t="n">
-        <v>1359.901221482042</v>
+        <v>1466.002689364122</v>
       </c>
       <c r="X15" t="n">
-        <v>1152.049721276509</v>
+        <v>1258.151189158589</v>
       </c>
       <c r="Y15" t="n">
-        <v>944.2894225115551</v>
+        <v>1050.390890393635</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="C16" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="D16" t="n">
-        <v>48.81975253256327</v>
+        <v>201.1043602314619</v>
       </c>
       <c r="E16" t="n">
-        <v>48.81975253256327</v>
+        <v>201.1043602314619</v>
       </c>
       <c r="F16" t="n">
-        <v>48.81975253256327</v>
+        <v>201.1043602314619</v>
       </c>
       <c r="G16" t="n">
         <v>48.81975253256327</v>
@@ -5460,28 +5460,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R16" t="n">
-        <v>565.7360729319925</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S16" t="n">
-        <v>565.7360729319925</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T16" t="n">
-        <v>337.9988400551709</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U16" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V16" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W16" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X16" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>796.4947224030295</v>
+        <v>1246.955840192009</v>
       </c>
       <c r="C17" t="n">
-        <v>796.4947224030295</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="D17" t="n">
-        <v>796.4947224030295</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E17" t="n">
-        <v>796.4947224030295</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F17" t="n">
-        <v>796.4947224030295</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G17" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H17" t="n">
         <v>48.81975253256327</v>
@@ -5560,7 +5560,7 @@
         <v>1412.848921778089</v>
       </c>
       <c r="Y17" t="n">
-        <v>1022.709589802277</v>
+        <v>1246.955840192009</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>890.3999085640012</v>
+        <v>744.1456658227286</v>
       </c>
       <c r="C18" t="n">
-        <v>715.9468792828742</v>
+        <v>569.6926365416016</v>
       </c>
       <c r="D18" t="n">
-        <v>567.0124696216229</v>
+        <v>420.7582268803504</v>
       </c>
       <c r="E18" t="n">
-        <v>407.7750146161674</v>
+        <v>261.5207718748949</v>
       </c>
       <c r="F18" t="n">
-        <v>261.2404566430524</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="G18" t="n">
-        <v>123.210569092214</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H18" t="n">
         <v>114.9862139017798</v>
@@ -5594,16 +5594,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J18" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L18" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M18" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N18" t="n">
         <v>1557.865593173221</v>
@@ -5624,22 +5624,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T18" t="n">
-        <v>2023.578676424718</v>
+        <v>2045.539770703513</v>
       </c>
       <c r="U18" t="n">
-        <v>1795.401172494432</v>
+        <v>1817.362266773227</v>
       </c>
       <c r="V18" t="n">
-        <v>1560.249064262689</v>
+        <v>1582.210158541485</v>
       </c>
       <c r="W18" t="n">
-        <v>1306.011707534488</v>
+        <v>1327.972801813283</v>
       </c>
       <c r="X18" t="n">
-        <v>1098.160207328955</v>
+        <v>1120.12130160775</v>
       </c>
       <c r="Y18" t="n">
-        <v>890.3999085640012</v>
+        <v>912.3610028427966</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.81975253256327</v>
+        <v>386.856150637024</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G19" t="n">
         <v>48.81975253256327</v>
@@ -5700,25 +5700,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S19" t="n">
-        <v>592.6833282610578</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T19" t="n">
-        <v>592.6833282610578</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U19" t="n">
-        <v>303.5042407384502</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V19" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W19" t="n">
-        <v>48.81975253256327</v>
+        <v>568.5046154672638</v>
       </c>
       <c r="X19" t="n">
-        <v>48.81975253256327</v>
+        <v>568.5046154672638</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.81975253256327</v>
+        <v>568.5046154672638</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1242.389200584807</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="C20" t="n">
-        <v>1242.389200584807</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="D20" t="n">
-        <v>1242.389200584807</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E20" t="n">
-        <v>856.6009479865622</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F20" t="n">
-        <v>445.6150431969547</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G20" t="n">
         <v>48.81975253256327</v>
@@ -5752,10 +5752,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K20" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L20" t="n">
         <v>795.0052981540045</v>
@@ -5764,7 +5764,7 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N20" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O20" t="n">
         <v>2037.925350935285</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2371.897027894854</v>
+        <v>2408.684922782792</v>
       </c>
       <c r="T20" t="n">
-        <v>2371.897027894854</v>
+        <v>2189.070318114479</v>
       </c>
       <c r="U20" t="n">
-        <v>2371.897027894854</v>
+        <v>1935.290624126362</v>
       </c>
       <c r="V20" t="n">
-        <v>2371.897027894854</v>
+        <v>1604.227736782791</v>
       </c>
       <c r="W20" t="n">
-        <v>2019.12837262474</v>
+        <v>1251.459081512677</v>
       </c>
       <c r="X20" t="n">
-        <v>2019.12837262474</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="Y20" t="n">
-        <v>1628.989040648928</v>
+        <v>877.9933232515971</v>
       </c>
     </row>
     <row r="21">
@@ -5807,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>829.5376498283632</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C21" t="n">
-        <v>655.0846205472362</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D21" t="n">
-        <v>506.150210885985</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E21" t="n">
         <v>506.150210885985</v>
@@ -5831,25 +5831,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K21" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L21" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M21" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N21" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O21" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5861,22 +5861,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T21" t="n">
-        <v>2130.931754709148</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U21" t="n">
-        <v>1902.754250778862</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="V21" t="n">
-        <v>1667.602142547119</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W21" t="n">
-        <v>1413.364785818918</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X21" t="n">
-        <v>1205.513285613385</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y21" t="n">
-        <v>997.7529868484312</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>169.5725348135579</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="C22" t="n">
-        <v>169.5725348135579</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="D22" t="n">
-        <v>169.5725348135579</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="E22" t="n">
-        <v>169.5725348135579</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F22" t="n">
-        <v>169.5725348135579</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G22" t="n">
-        <v>169.5725348135579</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H22" t="n">
         <v>48.81975253256327</v>
@@ -5949,13 +5949,13 @@
         <v>640.6381696807582</v>
       </c>
       <c r="W22" t="n">
-        <v>351.2209996437976</v>
+        <v>424.7223970129737</v>
       </c>
       <c r="X22" t="n">
-        <v>351.2209996437976</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="Y22" t="n">
-        <v>351.2209996437976</v>
+        <v>196.7328461149564</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>998.0661903063665</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="C23" t="n">
-        <v>629.1036733659547</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="D23" t="n">
-        <v>629.1036733659547</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="E23" t="n">
-        <v>629.1036733659547</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F23" t="n">
-        <v>629.1036733659547</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G23" t="n">
-        <v>210.9160074365284</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H23" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I23" t="n">
         <v>48.81975253256327</v>
@@ -6013,28 +6013,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2440.987626628164</v>
+        <v>2440.940524174269</v>
       </c>
       <c r="S23" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.940524174269</v>
       </c>
       <c r="T23" t="n">
-        <v>2259.7089786956</v>
+        <v>2221.325919505956</v>
       </c>
       <c r="U23" t="n">
-        <v>2259.7089786956</v>
+        <v>1967.546225517839</v>
       </c>
       <c r="V23" t="n">
-        <v>2259.7089786956</v>
+        <v>1967.546225517839</v>
       </c>
       <c r="W23" t="n">
-        <v>1906.940323425486</v>
+        <v>1967.546225517839</v>
       </c>
       <c r="X23" t="n">
-        <v>1774.8053623463</v>
+        <v>1594.080467256759</v>
       </c>
       <c r="Y23" t="n">
-        <v>1384.666030370488</v>
+        <v>1594.080467256759</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>882.175553373567</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C24" t="n">
-        <v>707.72252409244</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D24" t="n">
-        <v>558.7881144311888</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E24" t="n">
-        <v>399.5506594257333</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F24" t="n">
-        <v>253.0161014526182</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G24" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H24" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I24" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K24" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L24" t="n">
-        <v>664.2381464478937</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N24" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O24" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R24" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S24" t="n">
-        <v>2222.939999577549</v>
+        <v>2316.764520037966</v>
       </c>
       <c r="T24" t="n">
-        <v>2023.578676424718</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U24" t="n">
-        <v>1795.401172494432</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V24" t="n">
-        <v>1560.249064262689</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W24" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X24" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y24" t="n">
-        <v>890.3999085640012</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81975253256327</v>
+        <v>386.856150637024</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G25" t="n">
         <v>48.81975253256327</v>
@@ -6180,19 +6180,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U25" t="n">
-        <v>351.4590821581505</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V25" t="n">
-        <v>96.77459395226364</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W25" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X25" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81975253256327</v>
+        <v>568.5046154672638</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1701.619131293927</v>
+        <v>1267.631526924731</v>
       </c>
       <c r="C26" t="n">
-        <v>1332.656614353516</v>
+        <v>898.669009984319</v>
       </c>
       <c r="D26" t="n">
-        <v>1263.781575849841</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="E26" t="n">
-        <v>877.9933232515971</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="F26" t="n">
-        <v>467.0074184619895</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G26" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H26" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I26" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J26" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K26" t="n">
         <v>412.3079679977591</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
@@ -6262,16 +6262,16 @@
         <v>2440.987626628164</v>
       </c>
       <c r="V26" t="n">
-        <v>2440.987626628164</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W26" t="n">
-        <v>2088.218971358049</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="X26" t="n">
-        <v>2088.218971358049</v>
+        <v>1736.458981023513</v>
       </c>
       <c r="Y26" t="n">
-        <v>2088.218971358049</v>
+        <v>1654.231366988852</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>722.1845715439331</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C27" t="n">
-        <v>547.7315422628061</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D27" t="n">
-        <v>398.7971326015548</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E27" t="n">
-        <v>239.5596775960993</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F27" t="n">
-        <v>93.02511962298431</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G27" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H27" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I27" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K27" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L27" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M27" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N27" t="n">
         <v>1557.865593173221</v>
@@ -6332,25 +6332,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S27" t="n">
-        <v>2222.939999577549</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="T27" t="n">
-        <v>2023.578676424718</v>
+        <v>2183.976407531844</v>
       </c>
       <c r="U27" t="n">
-        <v>1795.401172494432</v>
+        <v>1955.798903601558</v>
       </c>
       <c r="V27" t="n">
-        <v>1560.249064262689</v>
+        <v>1720.646795369816</v>
       </c>
       <c r="W27" t="n">
-        <v>1306.011707534488</v>
+        <v>1466.409438641614</v>
       </c>
       <c r="X27" t="n">
-        <v>1098.160207328955</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y27" t="n">
-        <v>890.3999085640012</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.81975253256327</v>
+        <v>123.2314487457803</v>
       </c>
       <c r="C28" t="n">
-        <v>48.81975253256327</v>
+        <v>123.2314487457803</v>
       </c>
       <c r="D28" t="n">
-        <v>48.81975253256327</v>
+        <v>123.2314487457803</v>
       </c>
       <c r="E28" t="n">
-        <v>48.81975253256327</v>
+        <v>123.2314487457803</v>
       </c>
       <c r="F28" t="n">
-        <v>48.81975253256327</v>
+        <v>123.2314487457803</v>
       </c>
       <c r="G28" t="n">
         <v>48.81975253256327</v>
@@ -6414,22 +6414,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T28" t="n">
-        <v>412.9009368039367</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U28" t="n">
-        <v>338.2369225695239</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V28" t="n">
-        <v>338.2369225695239</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W28" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X28" t="n">
-        <v>48.81975253256327</v>
+        <v>123.2314487457803</v>
       </c>
       <c r="Y28" t="n">
-        <v>48.81975253256327</v>
+        <v>123.2314487457803</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1290.782696327151</v>
+        <v>1523.722937950192</v>
       </c>
       <c r="C29" t="n">
-        <v>1290.782696327151</v>
+        <v>1154.76042100978</v>
       </c>
       <c r="D29" t="n">
-        <v>1290.782696327151</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="E29" t="n">
-        <v>904.9944437289064</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="F29" t="n">
-        <v>494.0085389392988</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G29" t="n">
-        <v>75.82087300987257</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H29" t="n">
         <v>48.81975253256327</v>
@@ -6493,22 +6493,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T29" t="n">
-        <v>2440.987626628164</v>
+        <v>2300.462109990125</v>
       </c>
       <c r="U29" t="n">
-        <v>2440.987626628164</v>
+        <v>2300.462109990125</v>
       </c>
       <c r="V29" t="n">
-        <v>2440.987626628164</v>
+        <v>2300.462109990125</v>
       </c>
       <c r="W29" t="n">
-        <v>2440.987626628164</v>
+        <v>2300.462109990125</v>
       </c>
       <c r="X29" t="n">
-        <v>2067.521868367084</v>
+        <v>2300.462109990125</v>
       </c>
       <c r="Y29" t="n">
-        <v>1677.382536391272</v>
+        <v>1910.322778014313</v>
       </c>
     </row>
     <row r="30">
@@ -6542,40 +6542,40 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K30" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L30" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M30" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N30" t="n">
-        <v>1746.002248079784</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O30" t="n">
-        <v>2158.207869599013</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P30" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S30" t="n">
-        <v>2280.589895521037</v>
+        <v>2254.378424635692</v>
       </c>
       <c r="T30" t="n">
-        <v>2280.589895521037</v>
+        <v>2055.017101482861</v>
       </c>
       <c r="U30" t="n">
-        <v>2061.991705784318</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="V30" t="n">
         <v>1826.839597552575</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>198.5593213595487</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C31" t="n">
-        <v>198.5593213595487</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D31" t="n">
-        <v>198.5593213595487</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E31" t="n">
-        <v>198.5593213595487</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F31" t="n">
-        <v>198.5593213595487</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G31" t="n">
-        <v>198.5593213595487</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H31" t="n">
         <v>48.81975253256327</v>
@@ -6645,28 +6645,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R31" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S31" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T31" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U31" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V31" t="n">
-        <v>487.9764913965093</v>
+        <v>519.8853873997637</v>
       </c>
       <c r="W31" t="n">
-        <v>198.5593213595487</v>
+        <v>230.468217362803</v>
       </c>
       <c r="X31" t="n">
-        <v>198.5593213595487</v>
+        <v>230.468217362803</v>
       </c>
       <c r="Y31" t="n">
-        <v>198.5593213595487</v>
+        <v>230.468217362803</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1280.768542226082</v>
+        <v>1105.535272020765</v>
       </c>
       <c r="C32" t="n">
-        <v>911.8060252856701</v>
+        <v>736.5727550803538</v>
       </c>
       <c r="D32" t="n">
-        <v>553.5403266789197</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="E32" t="n">
-        <v>553.5403266789197</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="F32" t="n">
-        <v>142.5544218893121</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G32" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H32" t="n">
         <v>48.81975253256327</v>
@@ -6706,7 +6706,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L32" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M32" t="n">
         <v>1237.436361307048</v>
@@ -6718,34 +6718,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S32" t="n">
-        <v>2371.897027894854</v>
+        <v>2262.761113290881</v>
       </c>
       <c r="T32" t="n">
-        <v>2371.897027894854</v>
+        <v>2043.146508622568</v>
       </c>
       <c r="U32" t="n">
-        <v>2371.897027894854</v>
+        <v>1789.36681463445</v>
       </c>
       <c r="V32" t="n">
-        <v>2040.834140551283</v>
+        <v>1458.30392729088</v>
       </c>
       <c r="W32" t="n">
-        <v>2040.834140551283</v>
+        <v>1105.535272020765</v>
       </c>
       <c r="X32" t="n">
-        <v>1667.368382290203</v>
+        <v>1105.535272020765</v>
       </c>
       <c r="Y32" t="n">
-        <v>1667.368382290203</v>
+        <v>1105.535272020765</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.7751048338188</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C33" t="n">
-        <v>814.3220755526918</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D33" t="n">
-        <v>665.3876658914405</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E33" t="n">
-        <v>506.150210885985</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F33" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G33" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I33" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K33" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L33" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N33" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O33" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
@@ -6806,25 +6806,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S33" t="n">
-        <v>2383.337730684675</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T33" t="n">
-        <v>2183.976407531844</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U33" t="n">
-        <v>1955.798903601558</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V33" t="n">
-        <v>1720.646795369816</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W33" t="n">
-        <v>1466.409438641614</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.750740618841</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.990441853887</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>640.6381696807582</v>
+        <v>419.8455905372281</v>
       </c>
       <c r="C34" t="n">
-        <v>640.6381696807582</v>
+        <v>250.9094076093212</v>
       </c>
       <c r="D34" t="n">
-        <v>490.5215302684225</v>
+        <v>250.9094076093212</v>
       </c>
       <c r="E34" t="n">
-        <v>364.8099152070275</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F34" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G34" t="n">
         <v>48.81975253256327</v>
@@ -6903,7 +6903,7 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Y34" t="n">
-        <v>640.6381696807582</v>
+        <v>419.8455905372281</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1664.248454588231</v>
+        <v>1909.511190548436</v>
       </c>
       <c r="C35" t="n">
-        <v>1295.285937647819</v>
+        <v>1540.548673608024</v>
       </c>
       <c r="D35" t="n">
-        <v>937.0202390410684</v>
+        <v>1182.282975001274</v>
       </c>
       <c r="E35" t="n">
-        <v>551.2319864428241</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="F35" t="n">
-        <v>140.2460816532165</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G35" t="n">
-        <v>48.81975253256328</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I35" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
         <v>145.966048569732</v>
       </c>
       <c r="K35" t="n">
-        <v>412.3079679977593</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M35" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N35" t="n">
         <v>1672.394424063531</v>
@@ -6955,7 +6955,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P35" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q35" t="n">
         <v>2440.987626628164</v>
@@ -6967,22 +6967,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>2440.987626628164</v>
+        <v>2262.27984581855</v>
       </c>
       <c r="U35" t="n">
-        <v>2440.987626628164</v>
+        <v>2262.27984581855</v>
       </c>
       <c r="V35" t="n">
-        <v>2440.987626628164</v>
+        <v>2262.27984581855</v>
       </c>
       <c r="W35" t="n">
-        <v>2440.987626628164</v>
+        <v>1909.511190548436</v>
       </c>
       <c r="X35" t="n">
-        <v>2440.987626628164</v>
+        <v>1909.511190548436</v>
       </c>
       <c r="Y35" t="n">
-        <v>2050.848294652352</v>
+        <v>1909.511190548436</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>722.1845715439335</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="C36" t="n">
-        <v>547.7315422628066</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D36" t="n">
-        <v>527.3577783406021</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E36" t="n">
-        <v>368.1203233351466</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F36" t="n">
-        <v>221.5857653620315</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G36" t="n">
         <v>221.5857653620315</v>
@@ -7013,55 +7013,55 @@
         <v>114.9862139017798</v>
       </c>
       <c r="I36" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K36" t="n">
-        <v>285.1110033225004</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L36" t="n">
-        <v>664.2381464478937</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N36" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O36" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S36" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T36" t="n">
-        <v>2023.578676424718</v>
+        <v>2115.716180433476</v>
       </c>
       <c r="U36" t="n">
-        <v>1795.401172494433</v>
+        <v>1887.538676503191</v>
       </c>
       <c r="V36" t="n">
-        <v>1560.24906426269</v>
+        <v>1652.386568271448</v>
       </c>
       <c r="W36" t="n">
-        <v>1306.011707534488</v>
+        <v>1398.149211543247</v>
       </c>
       <c r="X36" t="n">
-        <v>1098.160207328955</v>
+        <v>1190.297711337714</v>
       </c>
       <c r="Y36" t="n">
-        <v>890.3999085640016</v>
+        <v>982.5374125727599</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>198.7974038739017</v>
+        <v>101.57561144789</v>
       </c>
       <c r="C37" t="n">
-        <v>198.7974038739017</v>
+        <v>101.57561144789</v>
       </c>
       <c r="D37" t="n">
-        <v>198.7974038739017</v>
+        <v>101.57561144789</v>
       </c>
       <c r="E37" t="n">
-        <v>198.7974038739017</v>
+        <v>101.57561144789</v>
       </c>
       <c r="F37" t="n">
-        <v>198.7974038739017</v>
+        <v>101.57561144789</v>
       </c>
       <c r="G37" t="n">
-        <v>48.81975253256328</v>
+        <v>101.57561144789</v>
       </c>
       <c r="H37" t="n">
-        <v>48.81975253256328</v>
+        <v>101.57561144789</v>
       </c>
       <c r="I37" t="n">
-        <v>48.81975253256328</v>
+        <v>101.57561144789</v>
       </c>
       <c r="J37" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K37" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L37" t="n">
         <v>206.6297039190408</v>
@@ -7116,31 +7116,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q37" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="R37" t="n">
-        <v>487.9764913965093</v>
+        <v>450.1511924226979</v>
       </c>
       <c r="S37" t="n">
-        <v>487.9764913965093</v>
+        <v>234.1128111332513</v>
       </c>
       <c r="T37" t="n">
-        <v>487.9764913965093</v>
+        <v>101.57561144789</v>
       </c>
       <c r="U37" t="n">
-        <v>198.7974038739017</v>
+        <v>101.57561144789</v>
       </c>
       <c r="V37" t="n">
-        <v>198.7974038739017</v>
+        <v>101.57561144789</v>
       </c>
       <c r="W37" t="n">
-        <v>198.7974038739017</v>
+        <v>101.57561144789</v>
       </c>
       <c r="X37" t="n">
-        <v>198.7974038739017</v>
+        <v>101.57561144789</v>
       </c>
       <c r="Y37" t="n">
-        <v>198.7974038739017</v>
+        <v>101.57561144789</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1246.955840192009</v>
+        <v>1991.009791397003</v>
       </c>
       <c r="C38" t="n">
-        <v>877.9933232515971</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="D38" t="n">
-        <v>877.9933232515971</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E38" t="n">
         <v>877.9933232515971</v>
       </c>
       <c r="F38" t="n">
-        <v>467.0074184619896</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G38" t="n">
-        <v>48.8197525325633</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H38" t="n">
-        <v>48.8197525325633</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I38" t="n">
-        <v>48.8197525325633</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J38" t="n">
         <v>145.966048569732</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2440.987626628164</v>
+        <v>2377.609631461125</v>
       </c>
       <c r="S38" t="n">
-        <v>2440.987626628164</v>
+        <v>2377.609631461125</v>
       </c>
       <c r="T38" t="n">
-        <v>2221.373021959851</v>
+        <v>2377.609631461125</v>
       </c>
       <c r="U38" t="n">
-        <v>2221.373021959851</v>
+        <v>2377.609631461125</v>
       </c>
       <c r="V38" t="n">
-        <v>2221.373021959851</v>
+        <v>2377.609631461125</v>
       </c>
       <c r="W38" t="n">
-        <v>2221.373021959851</v>
+        <v>2377.609631461125</v>
       </c>
       <c r="X38" t="n">
-        <v>2023.695012231942</v>
+        <v>2377.609631461125</v>
       </c>
       <c r="Y38" t="n">
-        <v>1633.55568025613</v>
+        <v>2377.609631461125</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>921.5458946967656</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C39" t="n">
-        <v>747.0928654156386</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D39" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E39" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960998</v>
       </c>
       <c r="F39" t="n">
-        <v>359.61565291287</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="G39" t="n">
-        <v>221.5857653620316</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9862139017799</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I39" t="n">
-        <v>48.8197525325633</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J39" t="n">
-        <v>112.9860412505445</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
         <v>349.2772920404815</v>
@@ -7265,40 +7265,40 @@
         <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
-        <v>1746.002248079784</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O39" t="n">
-        <v>1970.071214692451</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P39" t="n">
         <v>2283.899498973758</v>
       </c>
       <c r="Q39" t="n">
-        <v>2440.987626628165</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
         <v>2383.337730684676</v>
       </c>
       <c r="S39" t="n">
-        <v>2222.93999957755</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T39" t="n">
-        <v>2222.93999957755</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U39" t="n">
-        <v>1994.762495647265</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V39" t="n">
-        <v>1759.610387415522</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W39" t="n">
-        <v>1505.37303068732</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X39" t="n">
-        <v>1297.521530481788</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.761231716834</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>135.4207008687039</v>
+        <v>364.6458829583805</v>
       </c>
       <c r="C40" t="n">
-        <v>135.4207008687039</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D40" t="n">
-        <v>135.4207008687039</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E40" t="n">
-        <v>135.4207008687039</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F40" t="n">
-        <v>135.4207008687039</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G40" t="n">
-        <v>135.4207008687039</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H40" t="n">
-        <v>135.4207008687039</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I40" t="n">
-        <v>48.8197525325633</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J40" t="n">
-        <v>48.8197525325633</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K40" t="n">
-        <v>93.68771932371203</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L40" t="n">
         <v>206.6297039190408</v>
@@ -7359,25 +7359,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T40" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U40" t="n">
-        <v>135.4207008687039</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V40" t="n">
-        <v>135.4207008687039</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W40" t="n">
-        <v>135.4207008687039</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X40" t="n">
-        <v>135.4207008687039</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y40" t="n">
-        <v>135.4207008687039</v>
+        <v>546.2943477886203</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1246.955840192009</v>
+        <v>1126.705044379388</v>
       </c>
       <c r="C41" t="n">
-        <v>877.9933232515971</v>
+        <v>757.7425274389761</v>
       </c>
       <c r="D41" t="n">
-        <v>877.9933232515971</v>
+        <v>399.4768288322256</v>
       </c>
       <c r="E41" t="n">
-        <v>877.9933232515971</v>
+        <v>399.4768288322256</v>
       </c>
       <c r="F41" t="n">
-        <v>467.0074184619895</v>
+        <v>399.4768288322256</v>
       </c>
       <c r="G41" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H41" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I41" t="n">
         <v>48.81975253256327</v>
@@ -7414,16 +7414,16 @@
         <v>145.9660485697318</v>
       </c>
       <c r="K41" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L41" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M41" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
@@ -7435,28 +7435,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T41" t="n">
-        <v>2371.897027894854</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U41" t="n">
-        <v>2371.897027894854</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V41" t="n">
-        <v>2371.897027894854</v>
+        <v>1890.310134616279</v>
       </c>
       <c r="W41" t="n">
-        <v>2371.897027894854</v>
+        <v>1890.310134616279</v>
       </c>
       <c r="X41" t="n">
-        <v>1998.431269633774</v>
+        <v>1516.8443763552</v>
       </c>
       <c r="Y41" t="n">
-        <v>1633.55568025613</v>
+        <v>1126.705044379388</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>922.6086434646021</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C42" t="n">
-        <v>748.1556141834751</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D42" t="n">
-        <v>599.2212045222238</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="E42" t="n">
         <v>439.9837495167684</v>
@@ -7496,10 +7496,10 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L42" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M42" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N42" t="n">
         <v>1557.865593173221</v>
@@ -7526,16 +7526,16 @@
         <v>1795.401172494432</v>
       </c>
       <c r="V42" t="n">
-        <v>1760.673136183358</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W42" t="n">
-        <v>1506.435779455157</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X42" t="n">
-        <v>1298.584279249624</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y42" t="n">
-        <v>1090.82398048467</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="43">
@@ -7590,22 +7590,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q43" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="R43" t="n">
-        <v>640.6381696807582</v>
+        <v>450.1511924226979</v>
       </c>
       <c r="S43" t="n">
-        <v>640.6381696807582</v>
+        <v>234.1128111332513</v>
       </c>
       <c r="T43" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="U43" t="n">
-        <v>351.4590821581505</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="V43" t="n">
-        <v>338.2369225695239</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W43" t="n">
         <v>48.81975253256327</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1214.556426860827</v>
+        <v>1611.831429569653</v>
       </c>
       <c r="C44" t="n">
-        <v>845.5939099204151</v>
+        <v>1242.868912629241</v>
       </c>
       <c r="D44" t="n">
-        <v>845.5939099204151</v>
+        <v>884.6032140224904</v>
       </c>
       <c r="E44" t="n">
-        <v>459.8056573221708</v>
+        <v>498.8149614242462</v>
       </c>
       <c r="F44" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G44" t="n">
         <v>48.81975253256327</v>
@@ -7666,34 +7666,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P44" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q44" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S44" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T44" t="n">
-        <v>2271.853727735591</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U44" t="n">
-        <v>2271.853727735591</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V44" t="n">
-        <v>1940.790840392021</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W44" t="n">
-        <v>1588.022185121907</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="X44" t="n">
-        <v>1214.556426860827</v>
+        <v>1998.431269633774</v>
       </c>
       <c r="Y44" t="n">
-        <v>1214.556426860827</v>
+        <v>1998.431269633774</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>722.1845715439331</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C45" t="n">
-        <v>547.7315422628061</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D45" t="n">
-        <v>547.7315422628061</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E45" t="n">
-        <v>388.4940872573506</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F45" t="n">
         <v>293.4491915436533</v>
@@ -7730,49 +7730,49 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K45" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L45" t="n">
-        <v>728.4044351658748</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M45" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N45" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O45" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S45" t="n">
-        <v>2222.939999577549</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T45" t="n">
-        <v>2023.578676424718</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U45" t="n">
-        <v>1795.401172494432</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V45" t="n">
-        <v>1560.249064262689</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W45" t="n">
-        <v>1306.011707534488</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X45" t="n">
-        <v>1098.160207328955</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y45" t="n">
-        <v>890.3999085640012</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>196.7328461149564</v>
+        <v>196.6102374932942</v>
       </c>
       <c r="C46" t="n">
-        <v>196.7328461149564</v>
+        <v>196.6102374932942</v>
       </c>
       <c r="D46" t="n">
-        <v>196.7328461149564</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="E46" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="F46" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G46" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H46" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I46" t="n">
         <v>48.81975253256327</v>
@@ -7833,25 +7833,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S46" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T46" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U46" t="n">
-        <v>486.150016151917</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="V46" t="n">
-        <v>486.150016151917</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="W46" t="n">
-        <v>196.7328461149564</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="X46" t="n">
-        <v>196.7328461149564</v>
+        <v>196.6102374932942</v>
       </c>
       <c r="Y46" t="n">
-        <v>196.7328461149564</v>
+        <v>196.6102374932942</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.85469562617152</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K21" t="n">
-        <v>74.42821185443489</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>180.8033201453154</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>245.6177531937813</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>287.1006199003852</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.40241131725695</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>61.27660229194302</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>84.85469562617152</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,10 +10913,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O39" t="n">
-        <v>203.8252941185865</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11144,13 +11144,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>180.8033201453154</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11314,10 +11314,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714823</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599044</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>233.1030882730268</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>354.9770807400418</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>239.3800850779945</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>58.15164275350881</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>206.8512309729331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>98.9586696410658</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>212.6197173962968</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>345.5966313387723</v>
+        <v>326.3143916728566</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2418970482362</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,10 +23624,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>53.35061880807824</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>158.3910720113373</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4092130247883</v>
+        <v>16.64745140287874</v>
       </c>
       <c r="H16" t="n">
         <v>157.0547409226243</v>
@@ -23700,22 +23700,22 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R16" t="n">
-        <v>76.98198572012828</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S16" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>158.7811229382255</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
         <v>160.4752923549255</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>222.0037878858342</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23825,10 +23825,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
-        <v>97.39144430711933</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>21.74148333600732</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>157.0547409226243</v>
@@ -23940,19 +23940,19 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S19" t="n">
-        <v>166.4027044710487</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>215.1107796652315</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>21.17845151238447</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>326.1924309016296</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>147.4861846463208</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24056,7 +24056,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24101,13 +24101,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>106.2795475015856</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>31.12404080756139</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
-        <v>37.50948646443962</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I22" t="n">
         <v>137.955174638333</v>
@@ -24189,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>72.76638339548435</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.3996927459763</v>
+        <v>68.35306131662055</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>238.9174892100746</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>158.3910720113375</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24305,7 +24305,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>35.81287827175935</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>157.0547409226243</v>
@@ -24420,19 +24420,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>239.0477053310876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>147.1724346807353</v>
       </c>
     </row>
     <row r="26">
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>286.4967535020453</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>304.8326007617397</v>
       </c>
     </row>
     <row r="27">
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>105.1308741609317</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4092130247883</v>
+        <v>93.74163377370351</v>
       </c>
       <c r="H28" t="n">
         <v>157.0547409226243</v>
@@ -24654,10 +24654,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>212.3699225553129</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>299.4613216290933</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>160.4752923549255</v>
@@ -24733,7 +24733,7 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>78.29819714997197</v>
       </c>
       <c r="U29" t="n">
         <v>251.2418970482362</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24806,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>31.1240408075613</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>9.483521051630248</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24855,7 +24855,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
-        <v>8.81256778390869</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
         <v>137.955174638333</v>
@@ -24885,7 +24885,7 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
         <v>213.8779974765521</v>
@@ -24897,7 +24897,7 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>132.5923888656434</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>321.2084666069507</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>160.4752923549255</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4658614532381</v>
+        <v>3.021613249328908</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25013,10 +25013,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,13 +25046,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>92.88627525581299</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>105.1308741609317</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>21.9794637357882</v>
+        <v>91.78625214351013</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
         <v>157.0547409226243</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>323.4937234406852</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>160.4752923549255</v>
@@ -25207,7 +25207,7 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>40.49775562011334</v>
       </c>
       <c r="U35" t="n">
         <v>251.2418970482362</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25235,10 +25235,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>127.2750392816563</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25247,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>34.14273198461746</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>18.93133819686335</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
         <v>157.0547409226243</v>
@@ -25335,7 +25335,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J37" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4598605480533</v>
+        <v>94.24803285954556</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25396,10 +25396,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.3996927459763</v>
+        <v>5.655477530608152</v>
       </c>
       <c r="S38" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
         <v>251.2418970482362</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>174.0298710478397</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25475,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>66.55691803568267</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>92.88627525581273</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.4092130247883</v>
@@ -25569,7 +25569,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I40" t="n">
-        <v>52.22023578555384</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J40" t="n">
         <v>52.22830032617343</v>
@@ -25599,13 +25599,13 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>125.1842696788782</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>227.3305760883918</v>
       </c>
       <c r="H41" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>25.01110517218626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25712,10 +25712,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>40.77475074606143</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>198.4198312014622</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4598605480533</v>
+        <v>42.01973253337215</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>239.0477053310876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>375.3865782090774</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>326.1924309016296</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>49.97589871798397</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -25949,13 +25949,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>50.97476563682361</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>141.3464342174082</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>140.2580675454217</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I46" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>52.22830032617343</v>
@@ -26073,22 +26073,22 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>133.3440246538288</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>568634.0036888085</v>
+        <v>568634.0036888084</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>568634.0036888084</v>
+        <v>568634.0036888085</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>568634.0036888085</v>
+        <v>568634.0036888084</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>568634.0036888085</v>
+        <v>568634.0036888084</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>568634.0036888083</v>
+        <v>568634.0036888084</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>568634.0036888086</v>
+        <v>568634.0036888084</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>568634.0036888084</v>
+        <v>568634.0036888086</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
         <v>406713.5901862447</v>
       </c>
       <c r="F2" t="n">
-        <v>406713.5901862447</v>
+        <v>406713.5901862449</v>
       </c>
       <c r="G2" t="n">
-        <v>406713.5901862446</v>
+        <v>406713.5901862449</v>
       </c>
       <c r="H2" t="n">
-        <v>406713.5901862447</v>
+        <v>406713.5901862449</v>
       </c>
       <c r="I2" t="n">
+        <v>406713.5901862451</v>
+      </c>
+      <c r="J2" t="n">
+        <v>406713.590186245</v>
+      </c>
+      <c r="K2" t="n">
+        <v>406713.590186245</v>
+      </c>
+      <c r="L2" t="n">
+        <v>406713.5901862451</v>
+      </c>
+      <c r="M2" t="n">
         <v>406713.5901862449</v>
       </c>
-      <c r="J2" t="n">
-        <v>406713.5901862447</v>
-      </c>
-      <c r="K2" t="n">
-        <v>406713.5901862447</v>
-      </c>
-      <c r="L2" t="n">
-        <v>406713.5901862447</v>
-      </c>
-      <c r="M2" t="n">
-        <v>406713.5901862445</v>
-      </c>
       <c r="N2" t="n">
-        <v>406713.5901862448</v>
+        <v>406713.590186245</v>
       </c>
       <c r="O2" t="n">
-        <v>406713.5901862445</v>
+        <v>406713.590186245</v>
       </c>
       <c r="P2" t="n">
         <v>406713.5901862449</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327802</v>
+        <v>369435.2991327801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.2452810931</v>
+        <v>92014.24528109307</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="F5" t="n">
         <v>44136.03802033842</v>
@@ -26502,10 +26502,10 @@
         <v>44136.03802033842</v>
       </c>
       <c r="M5" t="n">
+        <v>44136.03802033842</v>
+      </c>
+      <c r="N5" t="n">
         <v>44136.03802033843</v>
-      </c>
-      <c r="N5" t="n">
-        <v>44136.03802033844</v>
       </c>
       <c r="O5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>186388.4898048764</v>
+        <v>186388.4898048761</v>
       </c>
       <c r="C6" t="n">
         <v>267157.9213364242</v>
       </c>
       <c r="D6" t="n">
-        <v>267157.9213364244</v>
+        <v>267157.921336424</v>
       </c>
       <c r="E6" t="n">
-        <v>-36560.9959367187</v>
+        <v>-30288.96382035954</v>
       </c>
       <c r="F6" t="n">
-        <v>332874.3031960616</v>
+        <v>339146.3353124207</v>
       </c>
       <c r="G6" t="n">
-        <v>332874.3031960615</v>
+        <v>339146.3353124207</v>
       </c>
       <c r="H6" t="n">
-        <v>332874.3031960615</v>
+        <v>339146.3353124208</v>
       </c>
       <c r="I6" t="n">
-        <v>332874.3031960618</v>
+        <v>339146.335312421</v>
       </c>
       <c r="J6" t="n">
-        <v>269814.3605969553</v>
+        <v>276086.3927133146</v>
       </c>
       <c r="K6" t="n">
-        <v>332874.3031960615</v>
+        <v>339146.3353124209</v>
       </c>
       <c r="L6" t="n">
-        <v>332874.3031960615</v>
+        <v>339146.335312421</v>
       </c>
       <c r="M6" t="n">
-        <v>240860.0579149681</v>
+        <v>247132.0900313277</v>
       </c>
       <c r="N6" t="n">
-        <v>332874.3031960616</v>
+        <v>339146.3353124209</v>
       </c>
       <c r="O6" t="n">
-        <v>332874.3031960613</v>
+        <v>339146.3353124209</v>
       </c>
       <c r="P6" t="n">
-        <v>332874.3031960617</v>
+        <v>339146.3353124208</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="F4" t="n">
         <v>610.2469066570409</v>
@@ -26822,10 +26822,10 @@
         <v>610.2469066570409</v>
       </c>
       <c r="M4" t="n">
+        <v>610.2469066570409</v>
+      </c>
+      <c r="N4" t="n">
         <v>610.246906657041</v>
-      </c>
-      <c r="N4" t="n">
-        <v>610.2469066570412</v>
       </c>
       <c r="O4" t="n">
         <v>610.2469066570409</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>349.7082848322977</v>
+        <v>319.1698855250446</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27463,16 +27463,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27508,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>81.33534713144022</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>163.9728522007644</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>301.251446211517</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>259.542103988905</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27697,19 +27697,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>197.7981193194529</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27827,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>119.7495544039028</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>152.5970991193535</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>149.0801356085611</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27937,16 +27937,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>126.3942969708654</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27979,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>177.6520972238915</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>13.24699506120115</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.45228430891457</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K15" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
@@ -35737,7 +35737,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N15" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O15" t="n">
         <v>416.3693146658877</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>238.6780311009466</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
@@ -35974,7 +35974,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N18" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O18" t="n">
         <v>416.3693146658877</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>48.64100594280286</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
@@ -36220,7 +36220,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K24" t="n">
         <v>238.6780311009466</v>
       </c>
       <c r="L24" t="n">
-        <v>382.95671022767</v>
+        <v>192.9196850695263</v>
       </c>
       <c r="M24" t="n">
         <v>499.39668221774</v>
@@ -36457,7 +36457,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>238.6780311009466</v>
       </c>
       <c r="L27" t="n">
-        <v>382.95671022767</v>
+        <v>257.7341181179921</v>
       </c>
       <c r="M27" t="n">
         <v>499.39668221774</v>
       </c>
       <c r="N27" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O27" t="n">
         <v>416.3693146658877</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>238.6780311009466</v>
@@ -36928,10 +36928,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P30" t="n">
-        <v>285.6361182112636</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K33" t="n">
         <v>238.6780311009466</v>
@@ -37159,7 +37159,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N33" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>238.6780311009466</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.45228430891457</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37633,10 +37633,10 @@
         <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O39" t="n">
-        <v>226.3322895077447</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P39" t="n">
         <v>316.9982669508155</v>
@@ -37864,13 +37864,13 @@
         <v>238.6780311009466</v>
       </c>
       <c r="L42" t="n">
-        <v>382.95671022767</v>
+        <v>192.9196850695263</v>
       </c>
       <c r="M42" t="n">
         <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O42" t="n">
         <v>416.3693146658877</v>
@@ -38034,10 +38034,10 @@
         <v>369.2231584563177</v>
       </c>
       <c r="P44" t="n">
-        <v>277.0684912329592</v>
+        <v>277.0684912329588</v>
       </c>
       <c r="Q44" t="n">
-        <v>130.0651205780289</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>64.81443304846582</v>
       </c>
       <c r="K45" t="n">
-        <v>238.6780311009466</v>
+        <v>207.3158823613948</v>
       </c>
       <c r="L45" t="n">
         <v>382.95671022767</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
